--- a/biology/Botanique/Penaeaceae/Penaeaceae.xlsx
+++ b/biology/Botanique/Penaeaceae/Penaeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Pénaéacées regroupe des plantes dicotylédones ; elle comprend 20 espèces réparties en 7 à 9 genres.
 Ce sont de petits arbustes, ressemblant à des bruyères, à feuilles opposées, parcheminées, originaires des régions subtropicales, principalement d'Afrique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Penaea, donné en hommage au médecin et botaniste français Pierre Pena (1536-1605), assistant du botaniste flamand Mathias de l'Obel (1538-1616)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Penaea, donné en hommage au médecin et botaniste français Pierre Pena (1536-1605), assistant du botaniste flamand Mathias de l'Obel (1538-1616).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[2] inclut dans cette famille les genres précédemment placés dans les familles Oliniaceae (le genre Olinia), Rhynchocalycaceae (le genre Rhynchocalyx).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Oliniaceae (le genre Olinia), Rhynchocalycaceae (le genre Rhynchocalyx).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (1 juin 2010)[3] et DELTA Angio           (1 juin 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (1 juin 2010) et DELTA Angio           (1 juin 2010) :
 Brachysiphon (es)
 Endonema (es)
 Glischrocolla (es)
@@ -584,7 +602,7 @@
 Saltera (es)
 Sonderothamnus (es)
 Stylapterus (es)
-Selon NCBI  (1 juin 2010)[5] (Plus conforme à APGIII puisqu'il incorpore les genres Olinia, anciennement dans Oliniaceae, et Rhynchocalyx, anciennement dans Rhynchocalycaceae) :
+Selon NCBI  (1 juin 2010) (Plus conforme à APGIII puisqu'il incorpore les genres Olinia, anciennement dans Oliniaceae, et Rhynchocalyx, anciennement dans Rhynchocalycaceae) :
 Brachysiphon
 Endonema
 Glischrocolla
@@ -621,9 +639,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (1 juin 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 juin 2010) :
 genre Brachysiphon
 Brachysiphon acutus
 Brachysiphon fucatus
